--- a/Probabilities.xlsx
+++ b/Probabilities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Desktop/DIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrocarughi/Documents/GitHub/DIA_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D75F2C-9A01-0343-AAC9-2527291F1CF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30041836-7567-7244-A29E-CDF1DDF2DFCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{292AB044-84C9-AC49-9279-4A2A3B09F51E}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>Worker</t>
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>Probability</t>
   </si>
   <si>
     <t>General</t>
@@ -60,26 +57,20 @@
     <t>W</t>
   </si>
   <si>
-    <t>Arms: 17</t>
-  </si>
-  <si>
-    <t>Opt: 8 (375)</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t/>
+    <t>Arms: 9</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Opt: 3 (375)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,8 +92,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,30 +128,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,35 +230,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -287,85 +245,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,11 +284,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,120 +407,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$7:$D$23</c:f>
+              <c:f>'General And Disagregated'!$D$11:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$F$7:$F$23</c:f>
+              <c:f>'General And Disagregated'!$E$11:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.2032000000000006E-3</c:v>
+                  <c:v>1.8297000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9630000000000014E-3</c:v>
+                  <c:v>1.7816000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5876000000000001E-2</c:v>
+                  <c:v>1.7271999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7495999999999998E-2</c:v>
+                  <c:v>1.5672999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8872999999999997E-2</c:v>
+                  <c:v>1.4872999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9034999999999996E-2</c:v>
+                  <c:v>1.338E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0007E-2</c:v>
+                  <c:v>1.2256E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0978999999999998E-2</c:v>
+                  <c:v>1.0805999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7982000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6119000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4499000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2879000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1259000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.4240000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.8320000000000012E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.9160000000000006E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>9.137000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,120 +745,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$28:$D$44</c:f>
+              <c:f>'General And Disagregated'!$D$32:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$F$28:$F$44</c:f>
+              <c:f>'General And Disagregated'!$E$32:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>1.9349999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7199999999999995E-3</c:v>
+                  <c:v>1.8949999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6200000000000003E-2</c:v>
+                  <c:v>1.8324999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7820000000000003E-2</c:v>
+                  <c:v>1.7049999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>1.6250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1060000000000002E-2</c:v>
+                  <c:v>1.4200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2679999999999999E-2</c:v>
+                  <c:v>1.2749999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7820000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4580000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2960000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.7199999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.4800000000000014E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2400000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,120 +1084,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$49:$D$65</c:f>
+              <c:f>'General And Disagregated'!$D$53:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$F$49:$F$65</c:f>
+              <c:f>'General And Disagregated'!$E$53:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8599999999999997E-3</c:v>
+                  <c:v>1.6110000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2960000000000003E-2</c:v>
+                  <c:v>1.5710000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7820000000000003E-2</c:v>
+                  <c:v>1.5085000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>1.2189999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>1.1389999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9439999999999999E-2</c:v>
+                  <c:v>8.5199999999999981E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7820000000000003E-2</c:v>
+                  <c:v>6.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6200000000000003E-2</c:v>
+                  <c:v>4.649999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2960000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.7199999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1000000000000013E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.4800000000000014E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.8599999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2400000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2400000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6200000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>2.9000000000000015E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,120 +1423,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$D$70:$D$86</c:f>
+              <c:f>'General And Disagregated'!$D$74:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$F$70:$F$86</c:f>
+              <c:f>'General And Disagregated'!$E$74:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.2400000000000007E-4</c:v>
+                  <c:v>1.1250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>9.2299999999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2400000000000007E-3</c:v>
+                  <c:v>1.0224999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8599999999999997E-3</c:v>
+                  <c:v>8.9499999999999962E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1000000000000013E-3</c:v>
+                  <c:v>8.1499999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1339999999999999E-2</c:v>
+                  <c:v>8.5199999999999981E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2960000000000003E-2</c:v>
+                  <c:v>7.7199999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4580000000000003E-2</c:v>
+                  <c:v>6.2699999999999987E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6200000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4580000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2960000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.7199999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.4800000000000014E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2400000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6200000000000003E-3</c:v>
+                  <c:v>6.1400000000000014E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +1759,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2042,120 +1769,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$7:$V$23</c:f>
+              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$S$7:$S$23</c:f>
+              <c:f>'General And Disagregated'!$S$11:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.2032000000000007E-3</c:v>
+                  <c:v>1.8747000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4963000000000002E-2</c:v>
+                  <c:v>1.8565999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0876000000000006E-2</c:v>
+                  <c:v>1.8546999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2496000000000002E-2</c:v>
+                  <c:v>1.7023000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3872999999999998E-2</c:v>
+                  <c:v>1.6222999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4035000000000001E-2</c:v>
+                  <c:v>1.4579999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5007000000000005E-2</c:v>
+                  <c:v>1.3456000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5979000000000002E-2</c:v>
+                  <c:v>1.1456000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2982000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1118999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9499000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7879000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6259000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3424000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0832E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.9160000000000012E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.6200000000000009E-3</c:v>
+                  <c:v>9.6370000000000015E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2174,7 +1853,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2184,120 +1865,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$7:$V$23</c:f>
+              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$W$7:$W$23</c:f>
+              <c:f>'General And Disagregated'!$W$11:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.1999999999999997E-4</c:v>
+                  <c:v>1.7347000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1370000000000001E-3</c:v>
+                  <c:v>1.6265999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0974000000000001E-2</c:v>
+                  <c:v>1.5747000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2518000000000001E-2</c:v>
+                  <c:v>1.4023000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3873E-2</c:v>
+                  <c:v>1.2922999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4034999999999999E-2</c:v>
+                  <c:v>1.1579999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5007000000000001E-2</c:v>
+                  <c:v>1.0255999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5978999999999997E-2</c:v>
+                  <c:v>9.2559999999999986E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2981999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1119000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4990000000000022E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.8790000000000023E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.3670000000000011E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.836E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.2240000000000011E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.05E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1E-4</c:v>
+                  <c:v>7.8370000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +1949,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2326,120 +1962,72 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'General And Disagregated'!$V$7:$V$23</c:f>
+              <c:f>'General And Disagregated'!$V$11:$V$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>275</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>325</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>375</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>475</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'General And Disagregated'!$AA$7:$AA$23</c:f>
+              <c:f>'General And Disagregated'!$AA$11:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.5199999999999993E-4</c:v>
+                  <c:v>1.8347000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0369999999999999E-3</c:v>
+                  <c:v>1.7866E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2876000000000004E-2</c:v>
+                  <c:v>1.6247000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4496000000000002E-2</c:v>
+                  <c:v>1.4623000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5873000000000002E-2</c:v>
+                  <c:v>1.4123E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6035000000000001E-2</c:v>
+                  <c:v>1.2780000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7007000000000001E-2</c:v>
+                  <c:v>1.1856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7978999999999998E-2</c:v>
+                  <c:v>1.1056E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4982000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3119000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1499000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.8790000000000024E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.2590000000000025E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.424E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8320000000000016E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1200000000000049E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1E-4</c:v>
+                  <c:v>9.4369999999999992E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,6 +2106,8 @@
         <c:axId val="1562639247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.9000000000000003E-2"/>
+          <c:min val="7.0000000000000019E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2609,339 +2199,6 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>General</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'General And Disagregated'!$D$105:$D$112</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>425</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>475</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'General And Disagregated'!$E$105:$E$112</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.75E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.4999999999999997E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DE6-754F-8FB9-175290094BFC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1565358255"/>
-        <c:axId val="1494169647"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1565358255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1494169647"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1494169647"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1565358255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3147,52 +2404,9 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -5239,509 +4453,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6394,14 +5105,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>774390</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:rowOff>123901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6421,42 +5132,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6195</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>215901</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2D325F-9718-1A42-9360-88D18D263947}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6762,3209 +5437,2964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9352B1A5-A1D3-6A47-B7F2-E5F2E1DD6A53}">
-  <dimension ref="B3:AB123"/>
+  <dimension ref="B3:AC124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K95" zoomScale="82" workbookViewId="0">
-      <selection activeCell="R115" sqref="R115"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="Q6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>200</v>
-      </c>
-      <c r="E7" s="25">
-        <f>E28*$C$29+E49*$C$50+E70*$C$71</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="F7" s="10">
-        <f>E7*3.24/100</f>
-        <v>2.2032000000000006E-3</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="3">
-        <v>200</v>
-      </c>
-      <c r="S7" s="10">
-        <f>S28*$C$29+S49*$C$50+S70*$C$71</f>
-        <v>7.2032000000000007E-3</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V7" s="3">
-        <v>200</v>
-      </c>
-      <c r="W7" s="10">
-        <f t="shared" ref="W7:AA7" si="0">W28*$C$29+W49*$C$50+W70*$C$71</f>
-        <v>3.1999999999999997E-4</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA7" s="10">
+      <c r="D11" s="2">
+        <v>300</v>
+      </c>
+      <c r="E11" s="8">
+        <f>E32*$C$31 + E53*$C$52 + E74*$C$73</f>
+        <v>1.8297000000000001E-2</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="23"/>
+      <c r="P11" s="26">
+        <f>S11*1/2 +W11*1/4 +AA11*1/4</f>
+        <v>1.8297000000000001E-2</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>300</v>
+      </c>
+      <c r="S11" s="8">
+        <f>S32*$C$31+S53*$C$52+S74*$C$73</f>
+        <v>1.8747000000000003E-2</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>300</v>
+      </c>
+      <c r="W11" s="8">
+        <f>W32*$C$31+W53*$C$52+W74*$C$73</f>
+        <v>1.7347000000000001E-2</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA11" s="8">
+        <f>AA32*$C$31+AA53*$C$52+AA74*$C$73</f>
+        <v>1.8347000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <f t="shared" ref="D9:D17" si="0">D11+25</f>
+        <v>325</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ref="E12:E19" si="1">E33*$C$31 + E54*$C$52 + E75*$C$73</f>
+        <v>1.7816000000000002E-2</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="23"/>
+      <c r="P12" s="26">
+        <f>S12*1/2 +W12*1/4 +AA12*1/4</f>
+        <v>1.7815999999999999E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" ref="R12:R19" si="2">R11+25</f>
+        <v>325</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" ref="S12:S19" si="3">S33*$C$31+S54*$C$52+S75*$C$73</f>
+        <v>1.8565999999999999E-2</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" ref="V12:V19" si="4">V11+25</f>
+        <v>325</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" ref="W12:W19" si="5">W33*$C$31+W54*$C$52+W75*$C$73</f>
+        <v>1.6265999999999999E-2</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:Z19" si="6">Z11+25</f>
+        <v>325</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" ref="AA12:AA19" si="7">AA33*$C$31+AA54*$C$52+AA75*$C$73</f>
+        <v>1.7866E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>4.5199999999999993E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D8" s="4">
-        <f>D7+25</f>
-        <v>225</v>
-      </c>
-      <c r="E8" s="24">
-        <f t="shared" ref="E8:E23" si="1">E29*$C$29+E50*$C$50+E71*$C$71</f>
-        <v>0.3075</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" ref="F8:F23" si="2">E8*3.24/100</f>
-        <v>9.9630000000000014E-3</v>
-      </c>
-      <c r="R8" s="4">
-        <f>R7+25</f>
-        <v>225</v>
-      </c>
-      <c r="S8" s="11">
-        <f t="shared" ref="S8:S23" si="3">S29*$C$29+S50*$C$50+S71*$C$71</f>
-        <v>1.4963000000000002E-2</v>
-      </c>
-      <c r="V8" s="4">
-        <f>V7+25</f>
-        <v>225</v>
-      </c>
-      <c r="W8" s="11">
-        <f t="shared" ref="W8" si="4">W29*$C$29+W50*$C$50+W71*$C$71</f>
-        <v>5.1370000000000001E-3</v>
-      </c>
-      <c r="Z8" s="4">
-        <f>Z7+25</f>
-        <v>225</v>
-      </c>
-      <c r="AA8" s="11">
-        <f t="shared" ref="AA8" si="5">AA29*$C$29+AA50*$C$50+AA71*$C$71</f>
-        <v>7.0369999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D9" s="5">
-        <f t="shared" ref="D9:D17" si="6">D8+25</f>
-        <v>250</v>
-      </c>
-      <c r="E9" s="22">
+        <v>350</v>
+      </c>
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
-        <v>0.49</v>
-      </c>
-      <c r="F9" s="12">
+        <v>1.7271999999999999E-2</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="23"/>
+      <c r="P13" s="26">
+        <f>S13*1/2 +W13*1/4 +AA13*1/4</f>
+        <v>1.7271999999999999E-2</v>
+      </c>
+      <c r="R13" s="4">
         <f t="shared" si="2"/>
-        <v>1.5876000000000001E-2</v>
-      </c>
-      <c r="R9" s="5">
-        <f t="shared" ref="R9:R23" si="7">R8+25</f>
-        <v>250</v>
-      </c>
-      <c r="S9" s="12">
+        <v>350</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="3"/>
-        <v>2.0876000000000006E-2</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" ref="V9:V23" si="8">V8+25</f>
-        <v>250</v>
-      </c>
-      <c r="W9" s="12">
-        <f t="shared" ref="W9" si="9">W30*$C$29+W51*$C$50+W72*$C$71</f>
-        <v>1.0974000000000001E-2</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" ref="Z9:Z23" si="10">Z8+25</f>
-        <v>250</v>
-      </c>
-      <c r="AA9" s="12">
-        <f t="shared" ref="AA9" si="11">AA30*$C$29+AA51*$C$50+AA72*$C$71</f>
-        <v>1.2876000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="4">
-        <f t="shared" si="6"/>
-        <v>275</v>
-      </c>
-      <c r="E10" s="24">
-        <f t="shared" si="1"/>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="2"/>
-        <v>1.7495999999999998E-2</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="7"/>
-        <v>275</v>
-      </c>
-      <c r="S10" s="11">
-        <f t="shared" si="3"/>
-        <v>2.2496000000000002E-2</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="8"/>
-        <v>275</v>
-      </c>
-      <c r="W10" s="11">
-        <f t="shared" ref="W10" si="12">W31*$C$29+W52*$C$50+W73*$C$71</f>
-        <v>1.2518000000000001E-2</v>
-      </c>
-      <c r="Z10" s="4">
-        <f t="shared" si="10"/>
-        <v>275</v>
-      </c>
-      <c r="AA10" s="11">
-        <f t="shared" ref="AA10" si="13">AA31*$C$29+AA52*$C$50+AA73*$C$71</f>
-        <v>1.4496000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="5">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" si="1"/>
-        <v>0.58249999999999991</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="2"/>
-        <v>1.8872999999999997E-2</v>
-      </c>
-      <c r="R11" s="5">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="S11" s="12">
-        <f t="shared" si="3"/>
-        <v>2.3872999999999998E-2</v>
-      </c>
-      <c r="V11" s="5">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" ref="W11" si="14">W32*$C$29+W53*$C$50+W74*$C$71</f>
-        <v>1.3873E-2</v>
-      </c>
-      <c r="Z11" s="5">
-        <f t="shared" si="10"/>
-        <v>300</v>
-      </c>
-      <c r="AA11" s="12">
-        <f t="shared" ref="AA11" si="15">AA32*$C$29+AA53*$C$50+AA74*$C$71</f>
-        <v>1.5873000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="4">
-        <f t="shared" si="6"/>
-        <v>325</v>
-      </c>
-      <c r="E12" s="24">
-        <f t="shared" si="1"/>
-        <v>0.58749999999999991</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" si="2"/>
-        <v>1.9034999999999996E-2</v>
-      </c>
-      <c r="R12" s="4">
-        <f t="shared" si="7"/>
-        <v>325</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="3"/>
-        <v>2.4035000000000001E-2</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="8"/>
-        <v>325</v>
-      </c>
-      <c r="W12" s="11">
-        <f t="shared" ref="W12" si="16">W33*$C$29+W54*$C$50+W75*$C$71</f>
-        <v>1.4034999999999999E-2</v>
-      </c>
-      <c r="Z12" s="4">
-        <f t="shared" si="10"/>
-        <v>325</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" ref="AA12" si="17">AA33*$C$29+AA54*$C$50+AA75*$C$71</f>
-        <v>1.6035000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D13" s="5">
+        <v>1.8546999999999998E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5747000000000001E-2</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="E13" s="22">
+      <c r="AA13" s="10">
+        <f t="shared" si="7"/>
+        <v>1.6247000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="F13" s="12">
+        <v>1.5672999999999999E-2</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="23"/>
+      <c r="P14" s="26">
+        <f>S14*1/2 +W14*1/4 +AA14*1/4</f>
+        <v>1.5673000000000003E-2</v>
+      </c>
+      <c r="R14" s="3">
         <f t="shared" si="2"/>
-        <v>2.0007E-2</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" si="7"/>
-        <v>350</v>
-      </c>
-      <c r="S13" s="12">
+        <v>375</v>
+      </c>
+      <c r="S14" s="9">
         <f t="shared" si="3"/>
-        <v>2.5007000000000005E-2</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" si="8"/>
-        <v>350</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" ref="W13" si="18">W34*$C$29+W55*$C$50+W76*$C$71</f>
-        <v>1.5007000000000001E-2</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="10"/>
-        <v>350</v>
-      </c>
-      <c r="AA13" s="12">
-        <f t="shared" ref="AA13" si="19">AA34*$C$29+AA55*$C$50+AA76*$C$71</f>
-        <v>1.7007000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D14" s="4">
+        <v>1.7023000000000003E-2</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="5"/>
+        <v>1.4023000000000001E-2</v>
+      </c>
+      <c r="Z14" s="3">
         <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="E14" s="24">
+      <c r="AA14" s="9">
+        <f t="shared" si="7"/>
+        <v>1.4623000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="1"/>
-        <v>0.64749999999999985</v>
-      </c>
-      <c r="F14" s="11">
+        <v>1.4872999999999999E-2</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="23"/>
+      <c r="P15" s="26">
+        <f>S15*1/2 +W15*1/4 +AA15*1/4</f>
+        <v>1.4872999999999997E-2</v>
+      </c>
+      <c r="R15" s="4">
         <f t="shared" si="2"/>
-        <v>2.0978999999999998E-2</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-      <c r="S14" s="11">
+        <v>400</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="3"/>
-        <v>2.5979000000000002E-2</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="8"/>
-        <v>375</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" ref="W14" si="20">W35*$C$29+W56*$C$50+W77*$C$71</f>
-        <v>1.5978999999999997E-2</v>
-      </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="10"/>
-        <v>375</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" ref="AA14" si="21">AA35*$C$29+AA56*$C$50+AA77*$C$71</f>
-        <v>1.7978999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D15" s="5">
+        <v>1.6222999999999998E-2</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="5"/>
+        <v>1.2922999999999999E-2</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="E15" s="22">
+      <c r="AA15" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4123E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F15" s="12">
+        <v>1.338E-2</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="23"/>
+      <c r="P16" s="26">
+        <f>S16*1/2 +W16*1/4 +AA16*1/4</f>
+        <v>1.338E-2</v>
+      </c>
+      <c r="R16" s="3">
         <f t="shared" si="2"/>
-        <v>1.7982000000000001E-2</v>
-      </c>
-      <c r="R15" s="5">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="S15" s="12">
+        <v>425</v>
+      </c>
+      <c r="S16" s="9">
         <f t="shared" si="3"/>
-        <v>2.2982000000000002E-2</v>
-      </c>
-      <c r="V15" s="5">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="W15" s="12">
-        <f t="shared" ref="W15" si="22">W36*$C$29+W57*$C$50+W78*$C$71</f>
-        <v>1.2981999999999999E-2</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="AA15" s="12">
-        <f t="shared" ref="AA15" si="23">AA36*$C$29+AA57*$C$50+AA78*$C$71</f>
-        <v>1.4982000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D16" s="4">
+        <v>1.4579999999999999E-2</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="4"/>
+        <v>425</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="5"/>
+        <v>1.1579999999999998E-2</v>
+      </c>
+      <c r="Z16" s="3">
         <f t="shared" si="6"/>
         <v>425</v>
       </c>
-      <c r="E16" s="24">
+      <c r="AA16" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2780000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E17" s="10">
         <f t="shared" si="1"/>
-        <v>0.49750000000000005</v>
-      </c>
-      <c r="F16" s="11">
+        <v>1.2256E-2</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="23"/>
+      <c r="P17" s="26">
+        <f>S17*1/2 +W17*1/4 +AA17*1/4</f>
+        <v>1.2256E-2</v>
+      </c>
+      <c r="R17" s="4">
         <f t="shared" si="2"/>
-        <v>1.6119000000000005E-2</v>
-      </c>
-      <c r="R16" s="4">
-        <f t="shared" si="7"/>
-        <v>425</v>
-      </c>
-      <c r="S16" s="11">
+        <v>450</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="3"/>
-        <v>2.1118999999999999E-2</v>
-      </c>
-      <c r="V16" s="4">
-        <f t="shared" si="8"/>
-        <v>425</v>
-      </c>
-      <c r="W16" s="11">
-        <f t="shared" ref="W16" si="24">W37*$C$29+W58*$C$50+W79*$C$71</f>
-        <v>1.1119000000000002E-2</v>
-      </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="10"/>
-        <v>425</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" ref="AA16" si="25">AA37*$C$29+AA58*$C$50+AA79*$C$71</f>
-        <v>1.3119000000000004E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D17" s="5">
+        <v>1.3456000000000001E-2</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="W17" s="10">
+        <f t="shared" si="5"/>
+        <v>1.0255999999999999E-2</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="E17" s="22">
+      <c r="AA17" s="10">
+        <f t="shared" si="7"/>
+        <v>1.1856E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D23" si="8">D17+25</f>
+        <v>475</v>
+      </c>
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
-        <v>0.44750000000000001</v>
-      </c>
-      <c r="F17" s="12">
+        <v>1.0805999999999998E-2</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="23"/>
+      <c r="P18" s="26">
+        <f>S18*1/2 +W18*1/4 +AA18*1/4</f>
+        <v>1.0806E-2</v>
+      </c>
+      <c r="R18" s="3">
         <f t="shared" si="2"/>
-        <v>1.4499000000000001E-2</v>
-      </c>
-      <c r="R17" s="5">
+        <v>475</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1456000000000001E-2</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="4"/>
+        <v>475</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="5"/>
+        <v>9.2559999999999986E-3</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="6"/>
+        <v>475</v>
+      </c>
+      <c r="AA18" s="9">
         <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="S17" s="12">
-        <f t="shared" si="3"/>
-        <v>1.9499000000000006E-2</v>
-      </c>
-      <c r="V17" s="5">
-        <f t="shared" si="8"/>
-        <v>450</v>
-      </c>
-      <c r="W17" s="12">
-        <f t="shared" ref="W17" si="26">W38*$C$29+W59*$C$50+W80*$C$71</f>
-        <v>9.4990000000000022E-3</v>
-      </c>
-      <c r="Z17" s="5">
-        <f t="shared" si="10"/>
-        <v>450</v>
-      </c>
-      <c r="AA17" s="12">
-        <f t="shared" ref="AA17" si="27">AA38*$C$29+AA59*$C$50+AA80*$C$71</f>
-        <v>1.1499000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D18" s="4">
-        <f t="shared" ref="D18:D23" si="28">D17+25</f>
-        <v>475</v>
-      </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
-        <v>0.39750000000000008</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="2"/>
-        <v>1.2879000000000003E-2</v>
-      </c>
-      <c r="R18" s="4">
-        <f t="shared" si="7"/>
-        <v>475</v>
-      </c>
-      <c r="S18" s="11">
-        <f t="shared" si="3"/>
-        <v>1.7879000000000003E-2</v>
-      </c>
-      <c r="V18" s="4">
-        <f t="shared" si="8"/>
-        <v>475</v>
-      </c>
-      <c r="W18" s="11">
-        <f t="shared" ref="W18" si="29">W39*$C$29+W60*$C$50+W81*$C$71</f>
-        <v>7.8790000000000023E-3</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" si="10"/>
-        <v>475</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" ref="AA18" si="30">AA39*$C$29+AA60*$C$50+AA81*$C$71</f>
-        <v>9.8790000000000024E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+        <v>1.1056E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="5">
-        <f t="shared" si="28"/>
-        <v>500</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="1"/>
-        <v>0.34750000000000009</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="2"/>
-        <v>1.1259000000000003E-2</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="S19" s="12">
-        <f t="shared" si="3"/>
-        <v>1.6259000000000003E-2</v>
-      </c>
-      <c r="V19" s="5">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
-      <c r="W19" s="12">
-        <f t="shared" ref="W19" si="31">W40*$C$29+W61*$C$50+W82*$C$71</f>
-        <v>6.3670000000000011E-3</v>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>9.137000000000001E-3</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="23"/>
+      <c r="P19" s="26">
+        <f>S19*1/2 +W19*1/4 +AA19*1/4</f>
+        <v>9.137000000000001E-3</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="3"/>
+        <v>9.6370000000000015E-3</v>
+      </c>
+      <c r="V19" s="5">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="5"/>
+        <v>7.8370000000000002E-3</v>
       </c>
       <c r="Z19" s="5">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="AA19" s="11">
+        <f t="shared" si="7"/>
+        <v>9.4369999999999992E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="19"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="19"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="19"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="19"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="19"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="24"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="22"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="22"/>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="P30" s="27"/>
+      <c r="AC30" s="27"/>
+    </row>
+    <row r="31" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="27"/>
+      <c r="U31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="27"/>
+    </row>
+    <row r="32" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>300</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.9349999999999999E-2</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="P32" s="26">
+        <f>S32*1/2 +W32*1/4 +AA32*1/4</f>
+        <v>1.9349999999999999E-2</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>300</v>
+      </c>
+      <c r="S32" s="8">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="T32" s="26">
+        <v>-3.6000000000000268E-4</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>300</v>
+      </c>
+      <c r="W32" s="8">
+        <v>1.84E-2</v>
+      </c>
+      <c r="X32" s="26">
+        <v>1.0399999999999993E-3</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA32" s="8">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="AC32" s="26">
+        <f>E32-AA32</f>
+        <v>-5.0000000000001432E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D33" s="3">
+        <f t="shared" ref="D30:D44" si="9">D32+25</f>
+        <v>325</v>
+      </c>
+      <c r="E33" s="9">
+        <v>1.8949999999999998E-2</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="P33" s="26">
+        <f t="shared" ref="P33:P82" si="10">S33*1/2 +W33*1/4 +AA33*1/4</f>
+        <v>1.8949999999999998E-2</v>
+      </c>
+      <c r="R33" s="3">
+        <v>325</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="T33" s="26">
+        <v>-2.5999999999999981E-4</v>
+      </c>
+      <c r="V33" s="3">
+        <v>325</v>
+      </c>
+      <c r="W33" s="9">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="X33" s="26">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>325</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC33" s="26">
+        <f t="shared" ref="AC33:AC40" si="11">E33-AA33</f>
+        <v>-5.0000000000001432E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D34" s="4">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1.8324999999999998E-2</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="P34" s="26">
         <f t="shared" si="10"/>
+        <v>1.8324999999999998E-2</v>
+      </c>
+      <c r="R34" s="4">
+        <v>350</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="T34" s="26">
+        <v>-1.7799999999999969E-3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>350</v>
+      </c>
+      <c r="W34" s="10">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="X34" s="26">
+        <v>1.0200000000000035E-3</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>350</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="AC34" s="26">
+        <f t="shared" si="11"/>
+        <v>1.0249999999999981E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D35" s="3">
+        <f t="shared" si="9"/>
+        <v>375</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1.7049999999999999E-2</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="P35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.7049999999999999E-2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>375</v>
+      </c>
+      <c r="S35" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="T35" s="26">
+        <v>-5.7999999999999718E-4</v>
+      </c>
+      <c r="V35" s="3">
+        <v>375</v>
+      </c>
+      <c r="W35" s="9">
+        <v>1.54E-2</v>
+      </c>
+      <c r="X35" s="26">
+        <v>2.420000000000002E-3</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>375</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AC35" s="26">
+        <f t="shared" si="11"/>
+        <v>1.0499999999999989E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D36" s="4">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="P36" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="R36" s="4">
+        <v>400</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="T36" s="26">
+        <v>-1.3999999999999985E-3</v>
+      </c>
+      <c r="V36" s="4">
+        <v>400</v>
+      </c>
+      <c r="W36" s="10">
+        <v>1.43E-2</v>
+      </c>
+      <c r="X36" s="26">
+        <v>1.9000000000000024E-3</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>400</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>1.55E-2</v>
+      </c>
+      <c r="AC36" s="26">
+        <f t="shared" si="11"/>
+        <v>7.5000000000000067E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D37" s="3">
+        <f t="shared" si="9"/>
+        <v>425</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="P37" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R37" s="3">
+        <v>425</v>
+      </c>
+      <c r="S37" s="9">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="T37" s="26">
+        <v>-1.6199999999999964E-3</v>
+      </c>
+      <c r="V37" s="3">
+        <v>425</v>
+      </c>
+      <c r="W37" s="9">
+        <v>1.32E-2</v>
+      </c>
+      <c r="X37" s="26">
+        <v>1.3800000000000028E-3</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>425</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>1.44E-2</v>
+      </c>
+      <c r="AC37" s="26">
+        <f t="shared" si="11"/>
+        <v>5.9999999999999984E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D38" s="4">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="P38" s="26">
+        <f t="shared" si="10"/>
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="R38" s="4">
+        <v>450</v>
+      </c>
+      <c r="S38" s="10">
+        <v>1.54E-2</v>
+      </c>
+      <c r="T38" s="26">
+        <v>-8.1999999999999781E-4</v>
+      </c>
+      <c r="V38" s="4">
+        <v>450</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="X38" s="26">
+        <v>2.3800000000000019E-3</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>450</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>1.38E-2</v>
+      </c>
+      <c r="AC38" s="26">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000105E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D39" s="3">
+        <f t="shared" si="9"/>
+        <v>475</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="P39" s="26">
+        <f t="shared" si="10"/>
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="R39" s="3">
+        <v>475</v>
+      </c>
+      <c r="S39" s="9">
+        <v>1.34E-2</v>
+      </c>
+      <c r="T39" s="26">
+        <v>-4.3999999999999768E-4</v>
+      </c>
+      <c r="V39" s="3">
+        <v>475</v>
+      </c>
+      <c r="W39" s="9">
+        <v>1.12E-2</v>
+      </c>
+      <c r="X39" s="26">
+        <v>1.7600000000000029E-3</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>475</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AC39" s="26">
+        <f t="shared" si="11"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="5">
+        <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="AA19" s="12">
-        <f t="shared" ref="AA19" si="32">AA40*$C$29+AA61*$C$50+AA82*$C$71</f>
-        <v>8.2590000000000025E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D20" s="4">
-        <f t="shared" si="28"/>
-        <v>525</v>
-      </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="2"/>
-        <v>8.4240000000000009E-3</v>
-      </c>
-      <c r="R20" s="4">
-        <f t="shared" si="7"/>
-        <v>525</v>
-      </c>
-      <c r="S20" s="11">
-        <f t="shared" si="3"/>
-        <v>1.3424000000000002E-2</v>
-      </c>
-      <c r="V20" s="4">
-        <f t="shared" si="8"/>
-        <v>525</v>
-      </c>
-      <c r="W20" s="11">
-        <f t="shared" ref="W20" si="33">W41*$C$29+W62*$C$50+W83*$C$71</f>
-        <v>3.836E-3</v>
-      </c>
-      <c r="Z20" s="4">
+      <c r="E40" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="P40" s="26">
         <f t="shared" si="10"/>
-        <v>525</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" ref="AA20" si="34">AA41*$C$29+AA62*$C$50+AA83*$C$71</f>
-        <v>5.424E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D21" s="5">
-        <f t="shared" si="28"/>
-        <v>550</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="1"/>
-        <v>0.18000000000000005</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="2"/>
-        <v>5.8320000000000012E-3</v>
-      </c>
-      <c r="R21" s="5">
-        <f t="shared" si="7"/>
-        <v>550</v>
-      </c>
-      <c r="S21" s="12">
-        <f t="shared" si="3"/>
-        <v>1.0832E-2</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" si="8"/>
-        <v>550</v>
-      </c>
-      <c r="W21" s="12">
-        <f t="shared" ref="W21" si="35">W42*$C$29+W63*$C$50+W84*$C$71</f>
-        <v>1.2240000000000011E-3</v>
-      </c>
-      <c r="Z21" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R40" s="5">
+        <v>500</v>
+      </c>
+      <c r="S40" s="11">
+        <v>1.15E-2</v>
+      </c>
+      <c r="T40" s="26">
+        <v>-1.6000000000000042E-4</v>
+      </c>
+      <c r="V40" s="5">
+        <v>500</v>
+      </c>
+      <c r="W40" s="11">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="X40" s="26">
+        <v>1.6399999999999991E-3</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>500</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AC40" s="26">
+        <f t="shared" si="11"/>
+        <v>-2.9999999999999992E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="19"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="19"/>
+      <c r="AC41" s="27"/>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="19"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="19"/>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="19"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="19"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="19"/>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="P44" s="26"/>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P45" s="26"/>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P46" s="26"/>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C48" s="7"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C49" s="24"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="22"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="22"/>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>300</v>
+      </c>
+      <c r="E53" s="8">
+        <v>1.6110000000000006E-2</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="P53" s="26">
         <f t="shared" si="10"/>
-        <v>550</v>
-      </c>
-      <c r="AA21" s="12">
-        <f t="shared" ref="AA21" si="36">AA42*$C$29+AA63*$C$50+AA84*$C$71</f>
-        <v>2.8320000000000016E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D22" s="4">
-        <f t="shared" si="28"/>
-        <v>575</v>
-      </c>
-      <c r="E22" s="24">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000024E-2</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="2"/>
-        <v>2.9160000000000006E-3</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="7"/>
-        <v>575</v>
-      </c>
-      <c r="S22" s="11">
-        <f t="shared" si="3"/>
-        <v>7.9160000000000012E-3</v>
-      </c>
-      <c r="V22" s="4">
-        <f t="shared" si="8"/>
-        <v>575</v>
-      </c>
-      <c r="W22" s="11">
-        <f t="shared" ref="W22" si="37">W43*$C$29+W64*$C$50+W85*$C$71</f>
-        <v>1.05E-4</v>
-      </c>
-      <c r="Z22" s="4">
+        <v>1.6110000000000006E-2</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53" s="2">
+        <v>300</v>
+      </c>
+      <c r="S53" s="8">
+        <v>1.6560000000000005E-2</v>
+      </c>
+      <c r="U53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V53" s="2">
+        <v>300</v>
+      </c>
+      <c r="W53" s="8">
+        <v>1.5160000000000003E-2</v>
+      </c>
+      <c r="Y53" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>300</v>
+      </c>
+      <c r="AA53" s="8">
+        <v>1.6160000000000004E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D54" s="3">
+        <v>325</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1.5710000000000002E-2</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="P54" s="26">
         <f t="shared" si="10"/>
-        <v>575</v>
-      </c>
-      <c r="AA22" s="11">
-        <f t="shared" ref="AA22" si="38">AA43*$C$29+AA64*$C$50+AA85*$C$71</f>
-        <v>2.1200000000000049E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="6">
-        <f t="shared" si="28"/>
-        <v>600</v>
-      </c>
-      <c r="E23" s="26">
-        <f t="shared" si="1"/>
-        <v>5.000000000000001E-2</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="2"/>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="7"/>
-        <v>600</v>
-      </c>
-      <c r="S23" s="13">
-        <f t="shared" si="3"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="8"/>
-        <v>600</v>
-      </c>
-      <c r="W23" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="Z23" s="6">
+        <v>1.5710000000000002E-2</v>
+      </c>
+      <c r="R54" s="3">
+        <v>325</v>
+      </c>
+      <c r="S54" s="9">
+        <v>1.6460000000000002E-2</v>
+      </c>
+      <c r="V54" s="3">
+        <v>325</v>
+      </c>
+      <c r="W54" s="9">
+        <v>1.4160000000000002E-2</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>325</v>
+      </c>
+      <c r="AA54" s="9">
+        <v>1.5760000000000003E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D55" s="4">
+        <v>350</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1.5085000000000001E-2</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="P55" s="26">
         <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="AA23" s="13">
-        <f t="shared" ref="AA23" si="39">AA44*$C$29+AA65*$C$50+AA86*$C$71</f>
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
+        <v>1.5085000000000001E-2</v>
+      </c>
+      <c r="R55" s="4">
+        <v>350</v>
+      </c>
+      <c r="S55" s="10">
+        <v>1.636E-2</v>
+      </c>
+      <c r="V55" s="4">
+        <v>350</v>
+      </c>
+      <c r="W55" s="10">
+        <v>1.3559999999999999E-2</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>350</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>1.406E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D56" s="3">
+        <v>375</v>
+      </c>
+      <c r="E56" s="9">
+        <v>1.2189999999999999E-2</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="P56" s="26">
+        <f t="shared" si="10"/>
+        <v>1.2189999999999999E-2</v>
+      </c>
+      <c r="R56" s="3">
+        <v>375</v>
+      </c>
+      <c r="S56" s="9">
+        <v>1.354E-2</v>
+      </c>
+      <c r="V56" s="3">
+        <v>375</v>
+      </c>
+      <c r="W56" s="9">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>375</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>1.1140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D57" s="4">
+        <v>400</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1.1389999999999997E-2</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="P57" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1389999999999997E-2</v>
+      </c>
+      <c r="R57" s="4">
+        <v>400</v>
+      </c>
+      <c r="S57" s="10">
+        <v>1.2739999999999998E-2</v>
+      </c>
+      <c r="V57" s="4">
+        <v>400</v>
+      </c>
+      <c r="W57" s="10">
+        <v>9.439999999999997E-3</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>1.0639999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D58" s="3">
+        <v>425</v>
+      </c>
+      <c r="E58" s="9">
+        <v>8.5199999999999981E-3</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="P58" s="26">
+        <f t="shared" si="10"/>
+        <v>8.5199999999999981E-3</v>
+      </c>
+      <c r="R58" s="3">
+        <v>425</v>
+      </c>
+      <c r="S58" s="9">
+        <v>9.7199999999999977E-3</v>
+      </c>
+      <c r="V58" s="3">
+        <v>425</v>
+      </c>
+      <c r="W58" s="9">
+        <v>6.7199999999999985E-3</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>425</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>7.9199999999999982E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D59" s="4">
+        <v>450</v>
+      </c>
+      <c r="E59" s="10">
+        <v>6.0999999999999995E-3</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="P59" s="26">
+        <f t="shared" si="10"/>
+        <v>6.0999999999999995E-3</v>
+      </c>
+      <c r="R59" s="4">
+        <v>450</v>
+      </c>
+      <c r="S59" s="10">
+        <v>7.2999999999999992E-3</v>
+      </c>
+      <c r="V59" s="4">
+        <v>450</v>
+      </c>
+      <c r="W59" s="10">
+        <v>4.0999999999999995E-3</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>450</v>
+      </c>
+      <c r="AA59" s="10">
+        <v>5.6999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D60" s="3">
+        <v>475</v>
+      </c>
+      <c r="E60" s="9">
+        <v>4.649999999999997E-3</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="P60" s="26">
+        <f t="shared" si="10"/>
+        <v>4.649999999999997E-3</v>
+      </c>
+      <c r="R60" s="3">
+        <v>475</v>
+      </c>
+      <c r="S60" s="9">
+        <v>5.2999999999999974E-3</v>
+      </c>
+      <c r="V60" s="3">
+        <v>475</v>
+      </c>
+      <c r="W60" s="9">
+        <v>3.0999999999999969E-3</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>475</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>4.8999999999999964E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="5">
+        <v>500</v>
+      </c>
+      <c r="E61" s="11">
+        <v>2.9000000000000015E-3</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="P61" s="26">
+        <f t="shared" si="10"/>
+        <v>2.9000000000000015E-3</v>
+      </c>
+      <c r="R61" s="5">
+        <v>500</v>
+      </c>
+      <c r="S61" s="11">
+        <v>3.4000000000000011E-3</v>
+      </c>
+      <c r="V61" s="5">
+        <v>500</v>
+      </c>
+      <c r="W61" s="11">
+        <v>1.6000000000000016E-3</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>500</v>
+      </c>
+      <c r="AA61" s="11">
+        <v>3.2000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="19"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="19"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="19"/>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="19"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="19"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="19"/>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="19"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="19"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="19"/>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="P65" s="26"/>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="F66" s="13"/>
+      <c r="P66" s="26"/>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="F67" s="13"/>
+      <c r="P67" s="26"/>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="F68" s="13"/>
+      <c r="P68" s="26"/>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C69" s="7"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C70" s="24"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="22"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="22"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="22"/>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="P71" s="26"/>
+    </row>
+    <row r="72" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="P72" s="26"/>
+    </row>
+    <row r="73" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="Q27" s="34" t="s">
+      <c r="E73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="19"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U73" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="V73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" s="34" t="s">
+      <c r="W73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y73" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="V27" s="2" t="s">
+      <c r="Z73" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y27" s="34" t="s">
+      <c r="AA73" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>200</v>
-      </c>
-      <c r="E28" s="25">
-        <v>0.05</v>
-      </c>
-      <c r="F28" s="10">
-        <f>E28*3.24/100</f>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>200</v>
-      </c>
-      <c r="S28" s="10">
-        <f>F28+$D$93</f>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <v>200</v>
-      </c>
-      <c r="W28" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="Y28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="4">
-        <f>D28+25</f>
-        <v>225</v>
-      </c>
-      <c r="E29" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" ref="F29:F44" si="40">E29*3.24/100</f>
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="R29" s="4">
-        <f>R28+25</f>
-        <v>225</v>
-      </c>
-      <c r="S29" s="11">
-        <f t="shared" ref="S29:S86" si="41">F29+$D$93</f>
-        <v>1.472E-2</v>
-      </c>
-      <c r="V29" s="4">
-        <f>V28+25</f>
-        <v>225</v>
-      </c>
-      <c r="W29" s="11">
-        <f t="shared" ref="W29:W84" si="42">F29+$D$94</f>
-        <v>4.7199999999999994E-3</v>
-      </c>
-      <c r="Z29" s="4">
-        <f>Z28+25</f>
-        <v>225</v>
-      </c>
-      <c r="AA29" s="11">
-        <f t="shared" ref="AA29:AA85" si="43">F29+$D$95</f>
-        <v>6.7199999999999994E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D30" s="5">
-        <f t="shared" ref="D30:D44" si="44">D29+25</f>
-        <v>250</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F30" s="12">
-        <f t="shared" si="40"/>
-        <v>1.6200000000000003E-2</v>
-      </c>
-      <c r="R30" s="5">
-        <f t="shared" ref="R30:R44" si="45">R29+25</f>
-        <v>250</v>
-      </c>
-      <c r="S30" s="12">
-        <f t="shared" si="41"/>
-        <v>2.1200000000000004E-2</v>
-      </c>
-      <c r="V30" s="5">
-        <f t="shared" ref="V30:V44" si="46">V29+25</f>
-        <v>250</v>
-      </c>
-      <c r="W30" s="12">
-        <f t="shared" si="42"/>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="Z30" s="5">
-        <f t="shared" ref="Z30:Z44" si="47">Z29+25</f>
-        <v>250</v>
-      </c>
-      <c r="AA30" s="12">
-        <f t="shared" si="43"/>
-        <v>1.3200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D31" s="4">
-        <f t="shared" si="44"/>
-        <v>275</v>
-      </c>
-      <c r="E31" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="40"/>
-        <v>1.7820000000000003E-2</v>
-      </c>
-      <c r="R31" s="4">
-        <f t="shared" si="45"/>
-        <v>275</v>
-      </c>
-      <c r="S31" s="11">
-        <f t="shared" si="41"/>
-        <v>2.2820000000000003E-2</v>
-      </c>
-      <c r="V31" s="4">
-        <f t="shared" si="46"/>
-        <v>275</v>
-      </c>
-      <c r="W31" s="11">
-        <f t="shared" si="42"/>
-        <v>1.2820000000000002E-2</v>
-      </c>
-      <c r="Z31" s="4">
-        <f t="shared" si="47"/>
-        <v>275</v>
-      </c>
-      <c r="AA31" s="11">
-        <f t="shared" si="43"/>
-        <v>1.4820000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D32" s="5">
-        <f t="shared" si="44"/>
+    </row>
+    <row r="74" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
         <v>300</v>
       </c>
-      <c r="E32" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="F32" s="12">
-        <f t="shared" si="40"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R32" s="5">
-        <f t="shared" si="45"/>
+      <c r="E74" s="8">
+        <v>1.1250000000000003E-2</v>
+      </c>
+      <c r="F74" s="19"/>
+      <c r="P74" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1250000000000003E-2</v>
+      </c>
+      <c r="Q74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R74" s="2">
         <v>300</v>
       </c>
-      <c r="S32" s="12">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V32" s="5">
-        <f t="shared" si="46"/>
+      <c r="S74" s="8">
+        <v>1.1700000000000002E-2</v>
+      </c>
+      <c r="U74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V74" s="2">
         <v>300</v>
       </c>
-      <c r="W32" s="12">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z32" s="5">
-        <f t="shared" si="47"/>
+      <c r="W74" s="8">
+        <v>1.03E-2</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z74" s="2">
         <v>300</v>
       </c>
-      <c r="AA32" s="12">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D33" s="4">
-        <f t="shared" si="44"/>
+      <c r="AA74" s="8">
+        <v>1.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D75" s="3">
         <v>325</v>
       </c>
-      <c r="E33" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="F33" s="11">
-        <f t="shared" si="40"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="45"/>
+      <c r="E75" s="9">
+        <v>9.2299999999999986E-3</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="P75" s="26">
+        <f t="shared" si="10"/>
+        <v>9.2299999999999986E-3</v>
+      </c>
+      <c r="R75" s="3">
         <v>325</v>
       </c>
-      <c r="S33" s="11">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V33" s="4">
-        <f t="shared" si="46"/>
+      <c r="S75" s="9">
+        <v>9.9799999999999993E-3</v>
+      </c>
+      <c r="V75" s="3">
         <v>325</v>
       </c>
-      <c r="W33" s="11">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z33" s="4">
-        <f t="shared" si="47"/>
+      <c r="W75" s="9">
+        <v>7.6799999999999993E-3</v>
+      </c>
+      <c r="Z75" s="3">
         <v>325</v>
       </c>
-      <c r="AA33" s="11">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D34" s="5">
-        <f t="shared" si="44"/>
+      <c r="AA75" s="9">
+        <v>9.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D76" s="4">
         <v>350</v>
       </c>
-      <c r="E34" s="22">
-        <v>0.65</v>
-      </c>
-      <c r="F34" s="12">
-        <f t="shared" si="40"/>
-        <v>2.1060000000000002E-2</v>
-      </c>
-      <c r="R34" s="5">
-        <f t="shared" si="45"/>
+      <c r="E76" s="10">
+        <v>1.0224999999999998E-2</v>
+      </c>
+      <c r="F76" s="19"/>
+      <c r="P76" s="26">
+        <f t="shared" si="10"/>
+        <v>1.0224999999999998E-2</v>
+      </c>
+      <c r="R76" s="4">
         <v>350</v>
       </c>
-      <c r="S34" s="12">
-        <f t="shared" si="41"/>
-        <v>2.6060000000000003E-2</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" si="46"/>
+      <c r="S76" s="10">
+        <v>1.1499999999999996E-2</v>
+      </c>
+      <c r="V76" s="4">
         <v>350</v>
       </c>
-      <c r="W34" s="12">
-        <f t="shared" si="42"/>
-        <v>1.6060000000000001E-2</v>
-      </c>
-      <c r="Z34" s="5">
-        <f t="shared" si="47"/>
+      <c r="W76" s="10">
+        <v>8.6999999999999959E-3</v>
+      </c>
+      <c r="Z76" s="4">
         <v>350</v>
       </c>
-      <c r="AA34" s="12">
-        <f t="shared" si="43"/>
-        <v>1.8060000000000003E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D35" s="4">
-        <f t="shared" si="44"/>
+      <c r="AA76" s="10">
+        <v>9.1999999999999964E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D77" s="3">
         <v>375</v>
       </c>
-      <c r="E35" s="24">
-        <v>0.7</v>
-      </c>
-      <c r="F35" s="11">
-        <f t="shared" si="40"/>
-        <v>2.2679999999999999E-2</v>
-      </c>
-      <c r="R35" s="4">
-        <f t="shared" si="45"/>
+      <c r="E77" s="9">
+        <v>8.9499999999999962E-3</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="P77" s="26">
+        <f t="shared" si="10"/>
+        <v>8.9499999999999962E-3</v>
+      </c>
+      <c r="R77" s="3">
         <v>375</v>
       </c>
-      <c r="S35" s="11">
-        <f t="shared" si="41"/>
-        <v>2.768E-2</v>
-      </c>
-      <c r="V35" s="4">
-        <f t="shared" si="46"/>
+      <c r="S77" s="9">
+        <v>1.0299999999999997E-2</v>
+      </c>
+      <c r="V77" s="3">
         <v>375</v>
       </c>
-      <c r="W35" s="11">
-        <f t="shared" si="42"/>
-        <v>1.7679999999999998E-2</v>
-      </c>
-      <c r="Z35" s="4">
-        <f t="shared" si="47"/>
+      <c r="W77" s="9">
+        <v>7.2999999999999975E-3</v>
+      </c>
+      <c r="Z77" s="3">
         <v>375</v>
       </c>
-      <c r="AA35" s="11">
-        <f t="shared" si="43"/>
-        <v>1.968E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D36" s="5">
-        <f t="shared" si="44"/>
+      <c r="AA77" s="9">
+        <v>7.8999999999999973E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D78" s="4">
         <v>400</v>
       </c>
-      <c r="E36" s="22">
-        <v>0.6</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="40"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R36" s="5">
-        <f t="shared" si="45"/>
+      <c r="E78" s="10">
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="F78" s="19"/>
+      <c r="P78" s="26">
+        <f t="shared" si="10"/>
+        <v>8.1499999999999993E-3</v>
+      </c>
+      <c r="R78" s="4">
         <v>400</v>
       </c>
-      <c r="S36" s="12">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V36" s="5">
-        <f t="shared" si="46"/>
+      <c r="S78" s="10">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="V78" s="4">
         <v>400</v>
       </c>
-      <c r="W36" s="12">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z36" s="5">
-        <f t="shared" si="47"/>
+      <c r="W78" s="10">
+        <v>6.1999999999999989E-3</v>
+      </c>
+      <c r="Z78" s="4">
         <v>400</v>
       </c>
-      <c r="AA36" s="12">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D37" s="4">
-        <f t="shared" si="44"/>
+      <c r="AA78" s="10">
+        <v>7.3999999999999986E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D79" s="3">
         <v>425</v>
       </c>
-      <c r="E37" s="24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="40"/>
-        <v>1.7820000000000003E-2</v>
-      </c>
-      <c r="R37" s="4">
-        <f t="shared" si="45"/>
+      <c r="E79" s="9">
+        <v>8.5199999999999981E-3</v>
+      </c>
+      <c r="F79" s="19"/>
+      <c r="P79" s="26">
+        <f t="shared" si="10"/>
+        <v>8.5199999999999981E-3</v>
+      </c>
+      <c r="R79" s="3">
         <v>425</v>
       </c>
-      <c r="S37" s="11">
-        <f t="shared" si="41"/>
-        <v>2.2820000000000003E-2</v>
-      </c>
-      <c r="V37" s="4">
-        <f t="shared" si="46"/>
+      <c r="S79" s="9">
+        <v>9.7199999999999977E-3</v>
+      </c>
+      <c r="V79" s="3">
         <v>425</v>
       </c>
-      <c r="W37" s="11">
-        <f t="shared" si="42"/>
-        <v>1.2820000000000002E-2</v>
-      </c>
-      <c r="Z37" s="4">
-        <f t="shared" si="47"/>
+      <c r="W79" s="9">
+        <v>6.7199999999999985E-3</v>
+      </c>
+      <c r="Z79" s="3">
         <v>425</v>
       </c>
-      <c r="AA37" s="11">
-        <f t="shared" si="43"/>
-        <v>1.4820000000000003E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D38" s="5">
-        <f t="shared" si="44"/>
+      <c r="AA79" s="9">
+        <v>7.9199999999999982E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="D80" s="4">
         <v>450</v>
       </c>
-      <c r="E38" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F38" s="12">
-        <f t="shared" si="40"/>
-        <v>1.6200000000000003E-2</v>
-      </c>
-      <c r="R38" s="5">
-        <f t="shared" si="45"/>
+      <c r="E80" s="10">
+        <v>7.7199999999999994E-3</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="P80" s="26">
+        <f t="shared" si="10"/>
+        <v>7.7199999999999994E-3</v>
+      </c>
+      <c r="R80" s="4">
         <v>450</v>
       </c>
-      <c r="S38" s="12">
-        <f t="shared" si="41"/>
-        <v>2.1200000000000004E-2</v>
-      </c>
-      <c r="V38" s="5">
-        <f t="shared" si="46"/>
+      <c r="S80" s="10">
+        <v>8.9199999999999991E-3</v>
+      </c>
+      <c r="V80" s="4">
         <v>450</v>
       </c>
-      <c r="W38" s="12">
-        <f t="shared" si="42"/>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="Z38" s="5">
-        <f t="shared" si="47"/>
+      <c r="W80" s="10">
+        <v>5.7199999999999994E-3</v>
+      </c>
+      <c r="Z80" s="4">
         <v>450</v>
       </c>
-      <c r="AA38" s="12">
-        <f t="shared" si="43"/>
-        <v>1.3200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D39" s="4">
-        <f t="shared" si="44"/>
+      <c r="AA80" s="10">
+        <v>7.3199999999999984E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="D81" s="3">
         <v>475</v>
       </c>
-      <c r="E39" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="F39" s="11">
-        <f t="shared" si="40"/>
-        <v>1.4580000000000003E-2</v>
-      </c>
-      <c r="R39" s="4">
-        <f t="shared" si="45"/>
+      <c r="E81" s="9">
+        <v>6.2699999999999987E-3</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="P81" s="26">
+        <f t="shared" si="10"/>
+        <v>6.2699999999999987E-3</v>
+      </c>
+      <c r="R81" s="3">
         <v>475</v>
       </c>
-      <c r="S39" s="11">
-        <f t="shared" si="41"/>
-        <v>1.9580000000000004E-2</v>
-      </c>
-      <c r="V39" s="4">
-        <f t="shared" si="46"/>
+      <c r="S81" s="9">
+        <v>6.9199999999999991E-3</v>
+      </c>
+      <c r="V81" s="3">
         <v>475</v>
       </c>
-      <c r="W39" s="11">
-        <f t="shared" si="42"/>
-        <v>9.5800000000000017E-3</v>
-      </c>
-      <c r="Z39" s="4">
-        <f t="shared" si="47"/>
+      <c r="W81" s="9">
+        <v>4.7199999999999985E-3</v>
+      </c>
+      <c r="Z81" s="3">
         <v>475</v>
       </c>
-      <c r="AA39" s="11">
-        <f t="shared" si="43"/>
-        <v>1.1580000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D40" s="5">
-        <f t="shared" si="44"/>
+      <c r="AA81" s="9">
+        <v>6.519999999999998E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="5">
         <v>500</v>
       </c>
-      <c r="E40" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F40" s="12">
-        <f t="shared" si="40"/>
-        <v>1.2960000000000003E-2</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="45"/>
+      <c r="E82" s="11">
+        <v>6.1400000000000014E-3</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="P82" s="26">
+        <f t="shared" si="10"/>
+        <v>6.1400000000000014E-3</v>
+      </c>
+      <c r="R82" s="5">
         <v>500</v>
       </c>
-      <c r="S40" s="12">
-        <f t="shared" si="41"/>
-        <v>1.7960000000000004E-2</v>
-      </c>
-      <c r="V40" s="5">
-        <f t="shared" si="46"/>
+      <c r="S82" s="11">
+        <v>6.6400000000000018E-3</v>
+      </c>
+      <c r="V82" s="5">
         <v>500</v>
       </c>
-      <c r="W40" s="12">
-        <f t="shared" si="42"/>
-        <v>7.9600000000000018E-3</v>
-      </c>
-      <c r="Z40" s="5">
-        <f t="shared" si="47"/>
+      <c r="W82" s="11">
+        <v>4.8400000000000023E-3</v>
+      </c>
+      <c r="Z82" s="5">
         <v>500</v>
       </c>
-      <c r="AA40" s="12">
-        <f t="shared" si="43"/>
-        <v>9.9600000000000036E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D41" s="4">
-        <f t="shared" si="44"/>
-        <v>525</v>
-      </c>
-      <c r="E41" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="F41" s="11">
-        <f t="shared" si="40"/>
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="R41" s="4">
-        <f t="shared" si="45"/>
-        <v>525</v>
-      </c>
-      <c r="S41" s="11">
-        <f t="shared" si="41"/>
-        <v>1.472E-2</v>
-      </c>
-      <c r="V41" s="4">
-        <f t="shared" si="46"/>
-        <v>525</v>
-      </c>
-      <c r="W41" s="11">
-        <f t="shared" si="42"/>
-        <v>4.7199999999999994E-3</v>
-      </c>
-      <c r="Z41" s="4">
-        <f t="shared" si="47"/>
-        <v>525</v>
-      </c>
-      <c r="AA41" s="11">
-        <f t="shared" si="43"/>
-        <v>6.7199999999999994E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D42" s="5">
-        <f t="shared" si="44"/>
-        <v>550</v>
-      </c>
-      <c r="E42" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="F42" s="12">
-        <f t="shared" si="40"/>
-        <v>6.4800000000000014E-3</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="45"/>
-        <v>550</v>
-      </c>
-      <c r="S42" s="12">
-        <f t="shared" si="41"/>
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="V42" s="5">
-        <f t="shared" si="46"/>
-        <v>550</v>
-      </c>
-      <c r="W42" s="12">
-        <f t="shared" si="42"/>
-        <v>1.4800000000000013E-3</v>
-      </c>
-      <c r="Z42" s="5">
-        <f t="shared" si="47"/>
-        <v>550</v>
-      </c>
-      <c r="AA42" s="12">
-        <f t="shared" si="43"/>
-        <v>3.4800000000000013E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="D43" s="4">
-        <f t="shared" si="44"/>
-        <v>575</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="F43" s="11">
-        <f t="shared" si="40"/>
-        <v>3.2400000000000007E-3</v>
-      </c>
-      <c r="R43" s="4">
-        <f t="shared" si="45"/>
-        <v>575</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="41"/>
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="V43" s="4">
-        <f t="shared" si="46"/>
-        <v>575</v>
-      </c>
-      <c r="W43" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="Z43" s="4">
-        <f t="shared" si="47"/>
-        <v>575</v>
-      </c>
-      <c r="AA43" s="11">
-        <f t="shared" si="43"/>
-        <v>2.4000000000000063E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="6">
-        <f t="shared" si="44"/>
-        <v>600</v>
-      </c>
-      <c r="E44" s="26">
-        <v>0.05</v>
-      </c>
-      <c r="F44" s="13">
-        <f t="shared" si="40"/>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R44" s="6">
-        <f t="shared" si="45"/>
-        <v>600</v>
-      </c>
-      <c r="S44" s="13">
-        <f t="shared" si="41"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V44" s="6">
-        <f t="shared" si="46"/>
-        <v>600</v>
-      </c>
-      <c r="W44" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="Z44" s="6">
-        <f t="shared" si="47"/>
-        <v>600</v>
-      </c>
-      <c r="AA44" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="40"/>
-      <c r="Q48" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S48" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U48" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W48" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y48" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="17">
-        <v>200</v>
-      </c>
-      <c r="E49" s="30">
-        <v>0.15</v>
-      </c>
-      <c r="F49" s="10">
-        <f>E49*3.24/100</f>
-        <v>4.8599999999999997E-3</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>200</v>
-      </c>
-      <c r="S49" s="10">
-        <f t="shared" si="41"/>
-        <v>9.8600000000000007E-3</v>
-      </c>
-      <c r="U49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
-        <v>200</v>
-      </c>
-      <c r="W49" s="10">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="Y49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA49" s="10">
-        <f t="shared" si="43"/>
-        <v>1.8599999999999997E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C50" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="D50" s="19">
-        <v>225</v>
-      </c>
-      <c r="E50" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="F50" s="11">
-        <f t="shared" ref="F50:F65" si="48">E50*3.24/100</f>
-        <v>1.2960000000000003E-2</v>
-      </c>
-      <c r="R50" s="4">
-        <f>R49+25</f>
-        <v>225</v>
-      </c>
-      <c r="S50" s="11">
-        <f t="shared" si="41"/>
-        <v>1.7960000000000004E-2</v>
-      </c>
-      <c r="V50" s="4">
-        <f>V49+25</f>
-        <v>225</v>
-      </c>
-      <c r="W50" s="11">
-        <f t="shared" si="42"/>
-        <v>7.9600000000000018E-3</v>
-      </c>
-      <c r="Z50" s="4">
-        <f>Z49+25</f>
-        <v>225</v>
-      </c>
-      <c r="AA50" s="11">
-        <f t="shared" si="43"/>
-        <v>9.9600000000000036E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C51" s="14"/>
-      <c r="D51" s="20">
-        <v>250</v>
-      </c>
-      <c r="E51" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="48"/>
-        <v>1.7820000000000003E-2</v>
-      </c>
-      <c r="R51" s="5">
-        <f t="shared" ref="R51:R65" si="49">R50+25</f>
-        <v>250</v>
-      </c>
-      <c r="S51" s="12">
-        <f t="shared" si="41"/>
-        <v>2.2820000000000003E-2</v>
-      </c>
-      <c r="V51" s="5">
-        <f t="shared" ref="V51:V65" si="50">V50+25</f>
-        <v>250</v>
-      </c>
-      <c r="W51" s="12">
-        <f t="shared" si="42"/>
-        <v>1.2820000000000002E-2</v>
-      </c>
-      <c r="Z51" s="5">
-        <f t="shared" ref="Z51:Z65" si="51">Z50+25</f>
-        <v>250</v>
-      </c>
-      <c r="AA51" s="12">
-        <f t="shared" si="43"/>
-        <v>1.4820000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C52" s="14"/>
-      <c r="D52" s="19">
-        <v>275</v>
-      </c>
-      <c r="E52" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="F52" s="11">
-        <f t="shared" si="48"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R52" s="4">
-        <f t="shared" si="49"/>
-        <v>275</v>
-      </c>
-      <c r="S52" s="11">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V52" s="4">
-        <f t="shared" si="50"/>
-        <v>275</v>
-      </c>
-      <c r="W52" s="11">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z52" s="4">
-        <f t="shared" si="51"/>
-        <v>275</v>
-      </c>
-      <c r="AA52" s="11">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C53" s="14"/>
-      <c r="D53" s="20">
-        <v>300</v>
-      </c>
-      <c r="E53" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="F53" s="12">
-        <f t="shared" si="48"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R53" s="5">
-        <f t="shared" si="49"/>
-        <v>300</v>
-      </c>
-      <c r="S53" s="12">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V53" s="5">
-        <f t="shared" si="50"/>
-        <v>300</v>
-      </c>
-      <c r="W53" s="12">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z53" s="5">
-        <f t="shared" si="51"/>
-        <v>300</v>
-      </c>
-      <c r="AA53" s="12">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C54" s="14"/>
-      <c r="D54" s="19">
-        <v>325</v>
-      </c>
-      <c r="E54" s="29">
-        <v>0.6</v>
-      </c>
-      <c r="F54" s="11">
-        <f t="shared" si="48"/>
-        <v>1.9439999999999999E-2</v>
-      </c>
-      <c r="R54" s="4">
-        <f t="shared" si="49"/>
-        <v>325</v>
-      </c>
-      <c r="S54" s="11">
-        <f t="shared" si="41"/>
-        <v>2.444E-2</v>
-      </c>
-      <c r="V54" s="4">
-        <f t="shared" si="50"/>
-        <v>325</v>
-      </c>
-      <c r="W54" s="11">
-        <f t="shared" si="42"/>
-        <v>1.4439999999999998E-2</v>
-      </c>
-      <c r="Z54" s="4">
-        <f t="shared" si="51"/>
-        <v>325</v>
-      </c>
-      <c r="AA54" s="11">
-        <f t="shared" si="43"/>
-        <v>1.644E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C55" s="14"/>
-      <c r="D55" s="20">
-        <v>350</v>
-      </c>
-      <c r="E55" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F55" s="12">
-        <f t="shared" si="48"/>
-        <v>1.7820000000000003E-2</v>
-      </c>
-      <c r="R55" s="5">
-        <f t="shared" si="49"/>
-        <v>350</v>
-      </c>
-      <c r="S55" s="12">
-        <f t="shared" si="41"/>
-        <v>2.2820000000000003E-2</v>
-      </c>
-      <c r="V55" s="5">
-        <f t="shared" si="50"/>
-        <v>350</v>
-      </c>
-      <c r="W55" s="12">
-        <f t="shared" si="42"/>
-        <v>1.2820000000000002E-2</v>
-      </c>
-      <c r="Z55" s="5">
-        <f t="shared" si="51"/>
-        <v>350</v>
-      </c>
-      <c r="AA55" s="12">
-        <f t="shared" si="43"/>
-        <v>1.4820000000000003E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C56" s="14"/>
-      <c r="D56" s="19">
-        <v>375</v>
-      </c>
-      <c r="E56" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="48"/>
-        <v>1.6200000000000003E-2</v>
-      </c>
-      <c r="R56" s="4">
-        <f t="shared" si="49"/>
-        <v>375</v>
-      </c>
-      <c r="S56" s="11">
-        <f t="shared" si="41"/>
-        <v>2.1200000000000004E-2</v>
-      </c>
-      <c r="V56" s="4">
-        <f t="shared" si="50"/>
-        <v>375</v>
-      </c>
-      <c r="W56" s="11">
-        <f t="shared" si="42"/>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="Z56" s="4">
-        <f t="shared" si="51"/>
-        <v>375</v>
-      </c>
-      <c r="AA56" s="11">
-        <f t="shared" si="43"/>
-        <v>1.3200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C57" s="14"/>
-      <c r="D57" s="20">
-        <v>400</v>
-      </c>
-      <c r="E57" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="F57" s="12">
-        <f t="shared" si="48"/>
-        <v>1.2960000000000003E-2</v>
-      </c>
-      <c r="R57" s="5">
-        <f t="shared" si="49"/>
-        <v>400</v>
-      </c>
-      <c r="S57" s="12">
-        <f t="shared" si="41"/>
-        <v>1.7960000000000004E-2</v>
-      </c>
-      <c r="V57" s="5">
-        <f t="shared" si="50"/>
-        <v>400</v>
-      </c>
-      <c r="W57" s="12">
-        <f t="shared" si="42"/>
-        <v>7.9600000000000018E-3</v>
-      </c>
-      <c r="Z57" s="5">
-        <f t="shared" si="51"/>
-        <v>400</v>
-      </c>
-      <c r="AA57" s="12">
-        <f t="shared" si="43"/>
-        <v>9.9600000000000036E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C58" s="14"/>
-      <c r="D58" s="19">
-        <v>425</v>
-      </c>
-      <c r="E58" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="F58" s="11">
-        <f t="shared" si="48"/>
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="R58" s="4">
-        <f t="shared" si="49"/>
-        <v>425</v>
-      </c>
-      <c r="S58" s="11">
-        <f t="shared" si="41"/>
-        <v>1.472E-2</v>
-      </c>
-      <c r="V58" s="4">
-        <f t="shared" si="50"/>
-        <v>425</v>
-      </c>
-      <c r="W58" s="11">
-        <f t="shared" si="42"/>
-        <v>4.7199999999999994E-3</v>
-      </c>
-      <c r="Z58" s="4">
-        <f t="shared" si="51"/>
-        <v>425</v>
-      </c>
-      <c r="AA58" s="11">
-        <f t="shared" si="43"/>
-        <v>6.7199999999999994E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C59" s="14"/>
-      <c r="D59" s="20">
-        <v>450</v>
-      </c>
-      <c r="E59" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="F59" s="12">
-        <f t="shared" si="48"/>
-        <v>8.1000000000000013E-3</v>
-      </c>
-      <c r="R59" s="5">
-        <f t="shared" si="49"/>
-        <v>450</v>
-      </c>
-      <c r="S59" s="12">
-        <f t="shared" si="41"/>
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="V59" s="5">
-        <f t="shared" si="50"/>
-        <v>450</v>
-      </c>
-      <c r="W59" s="12">
-        <f t="shared" si="42"/>
-        <v>3.1000000000000012E-3</v>
-      </c>
-      <c r="Z59" s="5">
-        <f t="shared" si="51"/>
-        <v>450</v>
-      </c>
-      <c r="AA59" s="12">
-        <f t="shared" si="43"/>
-        <v>5.1000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C60" s="14"/>
-      <c r="D60" s="19">
-        <v>475</v>
-      </c>
-      <c r="E60" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="F60" s="11">
-        <f t="shared" si="48"/>
-        <v>6.4800000000000014E-3</v>
-      </c>
-      <c r="R60" s="4">
-        <f t="shared" si="49"/>
-        <v>475</v>
-      </c>
-      <c r="S60" s="11">
-        <f t="shared" si="41"/>
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="V60" s="4">
-        <f t="shared" si="50"/>
-        <v>475</v>
-      </c>
-      <c r="W60" s="11">
-        <f t="shared" si="42"/>
-        <v>1.4800000000000013E-3</v>
-      </c>
-      <c r="Z60" s="4">
-        <f t="shared" si="51"/>
-        <v>475</v>
-      </c>
-      <c r="AA60" s="11">
-        <f t="shared" si="43"/>
-        <v>3.4800000000000013E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C61" s="14"/>
-      <c r="D61" s="20">
-        <v>500</v>
-      </c>
-      <c r="E61" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="F61" s="12">
-        <f t="shared" si="48"/>
-        <v>4.8599999999999997E-3</v>
-      </c>
-      <c r="R61" s="5">
-        <f t="shared" si="49"/>
-        <v>500</v>
-      </c>
-      <c r="S61" s="12">
-        <f t="shared" si="41"/>
-        <v>9.8600000000000007E-3</v>
-      </c>
-      <c r="V61" s="5">
-        <f t="shared" si="50"/>
-        <v>500</v>
-      </c>
-      <c r="W61" s="12">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="Z61" s="5">
-        <f t="shared" si="51"/>
-        <v>500</v>
-      </c>
-      <c r="AA61" s="12">
-        <f t="shared" si="43"/>
-        <v>1.8599999999999997E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C62" s="14"/>
-      <c r="D62" s="19">
-        <v>525</v>
-      </c>
-      <c r="E62" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="F62" s="11">
-        <f t="shared" si="48"/>
-        <v>3.2400000000000007E-3</v>
-      </c>
-      <c r="R62" s="4">
-        <f t="shared" si="49"/>
-        <v>525</v>
-      </c>
-      <c r="S62" s="11">
-        <f t="shared" si="41"/>
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="V62" s="4">
-        <f t="shared" si="50"/>
-        <v>525</v>
-      </c>
-      <c r="W62" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="Z62" s="4">
-        <f t="shared" si="51"/>
-        <v>525</v>
-      </c>
-      <c r="AA62" s="11">
-        <f t="shared" si="43"/>
-        <v>2.4000000000000063E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C63" s="14"/>
-      <c r="D63" s="20">
-        <v>550</v>
-      </c>
-      <c r="E63" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="F63" s="12">
-        <f t="shared" si="48"/>
-        <v>3.2400000000000007E-3</v>
-      </c>
-      <c r="R63" s="5">
-        <f t="shared" si="49"/>
-        <v>550</v>
-      </c>
-      <c r="S63" s="12">
-        <f t="shared" si="41"/>
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="V63" s="5">
-        <f t="shared" si="50"/>
-        <v>550</v>
-      </c>
-      <c r="W63" s="12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Z63" s="5">
-        <f t="shared" si="51"/>
-        <v>550</v>
-      </c>
-      <c r="AA63" s="12">
-        <f t="shared" si="43"/>
-        <v>2.4000000000000063E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C64" s="14"/>
-      <c r="D64" s="19">
-        <v>575</v>
-      </c>
-      <c r="E64" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="F64" s="11">
-        <f t="shared" si="48"/>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R64" s="4">
-        <f t="shared" si="49"/>
-        <v>575</v>
-      </c>
-      <c r="S64" s="11">
-        <f t="shared" si="41"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V64" s="4">
-        <f t="shared" si="50"/>
-        <v>575</v>
-      </c>
-      <c r="W64" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="Z64" s="4">
-        <f t="shared" si="51"/>
-        <v>575</v>
-      </c>
-      <c r="AA64" s="11">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
-      <c r="D65" s="21">
-        <v>600</v>
-      </c>
-      <c r="E65" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="F65" s="13">
-        <f t="shared" si="48"/>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R65" s="6">
-        <f t="shared" si="49"/>
-        <v>600</v>
-      </c>
-      <c r="S65" s="13">
-        <f t="shared" si="41"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V65" s="6">
-        <f t="shared" si="50"/>
-        <v>600</v>
-      </c>
-      <c r="W65" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="Z65" s="6">
-        <f t="shared" si="51"/>
-        <v>600</v>
-      </c>
-      <c r="AA65" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="14"/>
-      <c r="D69" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="42"/>
-      <c r="Q69" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S69" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="U69" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W69" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y69" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="17">
-        <v>200</v>
-      </c>
-      <c r="E70" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="F70" s="10">
-        <f>E70*3.24/100</f>
-        <v>3.2400000000000007E-4</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="R70" s="3">
-        <v>200</v>
-      </c>
-      <c r="S70" s="10">
-        <f t="shared" si="41"/>
-        <v>5.3240000000000006E-3</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="V70" s="3">
-        <v>200</v>
-      </c>
-      <c r="W70" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="Y70" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA70" s="10">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C71" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="D71" s="19">
-        <v>225</v>
-      </c>
-      <c r="E71" s="29">
-        <v>0.05</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" ref="F71:F86" si="52">E71*3.24/100</f>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R71" s="4">
-        <f>R70+25</f>
-        <v>225</v>
-      </c>
-      <c r="S71" s="11">
-        <f t="shared" si="41"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V71" s="4">
-        <f>V70+25</f>
-        <v>225</v>
-      </c>
-      <c r="W71" s="11">
-        <v>1E-4</v>
-      </c>
-      <c r="Z71" s="4">
-        <f>Z70+25</f>
-        <v>225</v>
-      </c>
-      <c r="AA71" s="11">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C72" s="14"/>
-      <c r="D72" s="20">
-        <v>250</v>
-      </c>
-      <c r="E72" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="F72" s="12">
-        <f t="shared" si="52"/>
-        <v>3.2400000000000007E-3</v>
-      </c>
-      <c r="R72" s="5">
-        <f t="shared" ref="R72:R86" si="53">R71+25</f>
-        <v>250</v>
-      </c>
-      <c r="S72" s="12">
-        <f t="shared" si="41"/>
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="V72" s="5">
-        <f t="shared" ref="V72:V86" si="54">V71+25</f>
-        <v>250</v>
-      </c>
-      <c r="W72" s="12">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Z72" s="5">
-        <f t="shared" ref="Z72:Z86" si="55">Z71+25</f>
-        <v>250</v>
-      </c>
-      <c r="AA72" s="12">
-        <f t="shared" si="43"/>
-        <v>2.4000000000000063E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C73" s="14"/>
-      <c r="D73" s="19">
-        <v>275</v>
-      </c>
-      <c r="E73" s="29">
-        <v>0.15</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="52"/>
-        <v>4.8599999999999997E-3</v>
-      </c>
-      <c r="R73" s="4">
-        <f t="shared" si="53"/>
-        <v>275</v>
-      </c>
-      <c r="S73" s="11">
-        <f t="shared" si="41"/>
-        <v>9.8600000000000007E-3</v>
-      </c>
-      <c r="V73" s="4">
-        <f t="shared" si="54"/>
-        <v>275</v>
-      </c>
-      <c r="W73" s="11">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="Z73" s="4">
-        <f t="shared" si="55"/>
-        <v>275</v>
-      </c>
-      <c r="AA73" s="11">
-        <f t="shared" si="43"/>
-        <v>1.8599999999999997E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C74" s="14"/>
-      <c r="D74" s="20">
-        <v>300</v>
-      </c>
-      <c r="E74" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="F74" s="12">
-        <f t="shared" si="52"/>
-        <v>8.1000000000000013E-3</v>
-      </c>
-      <c r="R74" s="5">
-        <f t="shared" si="53"/>
-        <v>300</v>
-      </c>
-      <c r="S74" s="12">
-        <f t="shared" si="41"/>
-        <v>1.3100000000000001E-2</v>
-      </c>
-      <c r="V74" s="5">
-        <f t="shared" si="54"/>
-        <v>300</v>
-      </c>
-      <c r="W74" s="12">
-        <f t="shared" si="42"/>
-        <v>3.1000000000000012E-3</v>
-      </c>
-      <c r="Z74" s="5">
-        <f t="shared" si="55"/>
-        <v>300</v>
-      </c>
-      <c r="AA74" s="12">
-        <f t="shared" si="43"/>
-        <v>5.1000000000000012E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C75" s="14"/>
-      <c r="D75" s="19">
-        <v>325</v>
-      </c>
-      <c r="E75" s="29">
-        <v>0.35</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="52"/>
-        <v>1.1339999999999999E-2</v>
-      </c>
-      <c r="R75" s="4">
-        <f t="shared" si="53"/>
-        <v>325</v>
-      </c>
-      <c r="S75" s="11">
-        <f t="shared" si="41"/>
-        <v>1.634E-2</v>
-      </c>
-      <c r="V75" s="4">
-        <f t="shared" si="54"/>
-        <v>325</v>
-      </c>
-      <c r="W75" s="11">
-        <f t="shared" si="42"/>
-        <v>6.3399999999999993E-3</v>
-      </c>
-      <c r="Z75" s="4">
-        <f t="shared" si="55"/>
-        <v>325</v>
-      </c>
-      <c r="AA75" s="11">
-        <f t="shared" si="43"/>
-        <v>8.3400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C76" s="14"/>
-      <c r="D76" s="20">
-        <v>350</v>
-      </c>
-      <c r="E76" s="28">
-        <v>0.4</v>
-      </c>
-      <c r="F76" s="12">
-        <f t="shared" si="52"/>
-        <v>1.2960000000000003E-2</v>
-      </c>
-      <c r="R76" s="5">
-        <f t="shared" si="53"/>
-        <v>350</v>
-      </c>
-      <c r="S76" s="12">
-        <f t="shared" si="41"/>
-        <v>1.7960000000000004E-2</v>
-      </c>
-      <c r="V76" s="5">
-        <f t="shared" si="54"/>
-        <v>350</v>
-      </c>
-      <c r="W76" s="12">
-        <f t="shared" si="42"/>
-        <v>7.9600000000000018E-3</v>
-      </c>
-      <c r="Z76" s="5">
-        <f t="shared" si="55"/>
-        <v>350</v>
-      </c>
-      <c r="AA76" s="12">
-        <f t="shared" si="43"/>
-        <v>9.9600000000000036E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C77" s="14"/>
-      <c r="D77" s="19">
-        <v>375</v>
-      </c>
-      <c r="E77" s="29">
-        <v>0.45</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="52"/>
-        <v>1.4580000000000003E-2</v>
-      </c>
-      <c r="R77" s="4">
-        <f t="shared" si="53"/>
-        <v>375</v>
-      </c>
-      <c r="S77" s="11">
-        <f t="shared" si="41"/>
-        <v>1.9580000000000004E-2</v>
-      </c>
-      <c r="V77" s="4">
-        <f t="shared" si="54"/>
-        <v>375</v>
-      </c>
-      <c r="W77" s="11">
-        <f t="shared" si="42"/>
-        <v>9.5800000000000017E-3</v>
-      </c>
-      <c r="Z77" s="4">
-        <f t="shared" si="55"/>
-        <v>375</v>
-      </c>
-      <c r="AA77" s="11">
-        <f t="shared" si="43"/>
-        <v>1.1580000000000003E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C78" s="14"/>
-      <c r="D78" s="20">
-        <v>400</v>
-      </c>
-      <c r="E78" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F78" s="12">
-        <f t="shared" si="52"/>
-        <v>1.6200000000000003E-2</v>
-      </c>
-      <c r="R78" s="5">
-        <f t="shared" si="53"/>
-        <v>400</v>
-      </c>
-      <c r="S78" s="12">
-        <f t="shared" si="41"/>
-        <v>2.1200000000000004E-2</v>
-      </c>
-      <c r="V78" s="5">
-        <f t="shared" si="54"/>
-        <v>400</v>
-      </c>
-      <c r="W78" s="12">
-        <f t="shared" si="42"/>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="Z78" s="5">
-        <f t="shared" si="55"/>
-        <v>400</v>
-      </c>
-      <c r="AA78" s="12">
-        <f t="shared" si="43"/>
-        <v>1.3200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C79" s="14"/>
-      <c r="D79" s="19">
-        <v>425</v>
-      </c>
-      <c r="E79" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="52"/>
-        <v>1.6200000000000003E-2</v>
-      </c>
-      <c r="R79" s="4">
-        <f t="shared" si="53"/>
-        <v>425</v>
-      </c>
-      <c r="S79" s="11">
-        <f t="shared" si="41"/>
-        <v>2.1200000000000004E-2</v>
-      </c>
-      <c r="V79" s="4">
-        <f t="shared" si="54"/>
-        <v>425</v>
-      </c>
-      <c r="W79" s="11">
-        <f t="shared" si="42"/>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="Z79" s="4">
-        <f t="shared" si="55"/>
-        <v>425</v>
-      </c>
-      <c r="AA79" s="11">
-        <f t="shared" si="43"/>
-        <v>1.3200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C80" s="14"/>
-      <c r="D80" s="20">
-        <v>450</v>
-      </c>
-      <c r="E80" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="F80" s="12">
-        <f t="shared" si="52"/>
-        <v>1.4580000000000003E-2</v>
-      </c>
-      <c r="R80" s="5">
-        <f t="shared" si="53"/>
-        <v>450</v>
-      </c>
-      <c r="S80" s="12">
-        <f t="shared" si="41"/>
-        <v>1.9580000000000004E-2</v>
-      </c>
-      <c r="V80" s="5">
-        <f t="shared" si="54"/>
-        <v>450</v>
-      </c>
-      <c r="W80" s="12">
-        <f t="shared" si="42"/>
-        <v>9.5800000000000017E-3</v>
-      </c>
-      <c r="Z80" s="5">
-        <f t="shared" si="55"/>
-        <v>450</v>
-      </c>
-      <c r="AA80" s="12">
-        <f t="shared" si="43"/>
-        <v>1.1580000000000003E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C81" s="14"/>
-      <c r="D81" s="19">
-        <v>475</v>
-      </c>
-      <c r="E81" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="52"/>
-        <v>1.2960000000000003E-2</v>
-      </c>
-      <c r="R81" s="4">
-        <f t="shared" si="53"/>
-        <v>475</v>
-      </c>
-      <c r="S81" s="11">
-        <f t="shared" si="41"/>
-        <v>1.7960000000000004E-2</v>
-      </c>
-      <c r="V81" s="4">
-        <f t="shared" si="54"/>
-        <v>475</v>
-      </c>
-      <c r="W81" s="11">
-        <f t="shared" si="42"/>
-        <v>7.9600000000000018E-3</v>
-      </c>
-      <c r="Z81" s="4">
-        <f t="shared" si="55"/>
-        <v>475</v>
-      </c>
-      <c r="AA81" s="11">
-        <f t="shared" si="43"/>
-        <v>9.9600000000000036E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C82" s="14"/>
-      <c r="D82" s="20">
-        <v>500</v>
-      </c>
-      <c r="E82" s="28">
-        <v>0.35</v>
-      </c>
-      <c r="F82" s="12">
-        <f t="shared" si="52"/>
-        <v>1.1339999999999999E-2</v>
-      </c>
-      <c r="R82" s="5">
-        <f t="shared" si="53"/>
-        <v>500</v>
-      </c>
-      <c r="S82" s="12">
-        <f t="shared" si="41"/>
-        <v>1.634E-2</v>
-      </c>
-      <c r="V82" s="5">
-        <f t="shared" si="54"/>
-        <v>500</v>
-      </c>
-      <c r="W82" s="12">
-        <f t="shared" si="42"/>
-        <v>6.3399999999999993E-3</v>
-      </c>
-      <c r="Z82" s="5">
-        <f t="shared" si="55"/>
-        <v>500</v>
-      </c>
-      <c r="AA82" s="12">
-        <f t="shared" si="43"/>
-        <v>8.3400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C83" s="14"/>
-      <c r="D83" s="19">
-        <v>525</v>
-      </c>
-      <c r="E83" s="29">
-        <v>0.3</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="52"/>
-        <v>9.7199999999999995E-3</v>
-      </c>
-      <c r="R83" s="4">
-        <f t="shared" si="53"/>
-        <v>525</v>
-      </c>
-      <c r="S83" s="11">
-        <f t="shared" si="41"/>
-        <v>1.472E-2</v>
-      </c>
-      <c r="V83" s="4">
-        <f t="shared" si="54"/>
-        <v>525</v>
-      </c>
-      <c r="W83" s="11">
-        <f t="shared" si="42"/>
-        <v>4.7199999999999994E-3</v>
-      </c>
-      <c r="Z83" s="4">
-        <f t="shared" si="55"/>
-        <v>525</v>
-      </c>
-      <c r="AA83" s="11">
-        <f t="shared" si="43"/>
-        <v>6.7199999999999994E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C84" s="14"/>
-      <c r="D84" s="20">
-        <v>550</v>
-      </c>
-      <c r="E84" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="F84" s="12">
-        <f t="shared" si="52"/>
-        <v>6.4800000000000014E-3</v>
-      </c>
-      <c r="R84" s="5">
-        <f t="shared" si="53"/>
-        <v>550</v>
-      </c>
-      <c r="S84" s="12">
-        <f t="shared" si="41"/>
-        <v>1.1480000000000001E-2</v>
-      </c>
-      <c r="V84" s="5">
-        <f t="shared" si="54"/>
-        <v>550</v>
-      </c>
-      <c r="W84" s="12">
-        <f t="shared" si="42"/>
-        <v>1.4800000000000013E-3</v>
-      </c>
-      <c r="Z84" s="5">
-        <f t="shared" si="55"/>
-        <v>550</v>
-      </c>
-      <c r="AA84" s="12">
-        <f t="shared" si="43"/>
-        <v>3.4800000000000013E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C85" s="14"/>
-      <c r="D85" s="19">
-        <v>575</v>
-      </c>
-      <c r="E85" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="52"/>
-        <v>3.2400000000000007E-3</v>
-      </c>
-      <c r="R85" s="4">
-        <f t="shared" si="53"/>
-        <v>575</v>
-      </c>
-      <c r="S85" s="11">
-        <f t="shared" si="41"/>
-        <v>8.2400000000000008E-3</v>
-      </c>
-      <c r="V85" s="4">
-        <f t="shared" si="54"/>
-        <v>575</v>
-      </c>
-      <c r="W85" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Z85" s="4">
-        <f t="shared" si="55"/>
-        <v>575</v>
-      </c>
-      <c r="AA85" s="11">
-        <f t="shared" si="43"/>
-        <v>2.4000000000000063E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="14"/>
-      <c r="D86" s="21">
-        <v>600</v>
-      </c>
-      <c r="E86" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="F86" s="32">
-        <f t="shared" si="52"/>
-        <v>1.6200000000000003E-3</v>
-      </c>
-      <c r="R86" s="6">
-        <f t="shared" si="53"/>
-        <v>600</v>
-      </c>
-      <c r="S86" s="13">
-        <f t="shared" si="41"/>
-        <v>6.6200000000000009E-3</v>
-      </c>
-      <c r="V86" s="6">
-        <f t="shared" si="54"/>
-        <v>600</v>
-      </c>
-      <c r="W86" s="13">
-        <v>1E-4</v>
-      </c>
-      <c r="Z86" s="6">
-        <f t="shared" si="55"/>
-        <v>600</v>
-      </c>
-      <c r="AA86" s="13">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="18">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="18">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="X98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="3:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="P103" s="9"/>
-    </row>
-    <row r="104" spans="3:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="34"/>
-      <c r="D104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="44"/>
-      <c r="P104" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R104" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="U104" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="V104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W104" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z104" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB104" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="3:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="3">
-        <v>300</v>
-      </c>
-      <c r="E105" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="F105" s="45"/>
-      <c r="G105" s="9"/>
-      <c r="P105" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>300</v>
-      </c>
-      <c r="R105" s="10">
-        <f>E105+$D$93</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="U105" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="V105" s="3">
-        <v>300</v>
-      </c>
-      <c r="W105" s="10">
-        <f>E105+$D$94</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Z105" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA105" s="3">
-        <v>300</v>
-      </c>
-      <c r="AB105" s="10">
-        <f>E105+$D$95</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D106" s="4">
-        <f xml:space="preserve"> D105+25</f>
-        <v>325</v>
-      </c>
-      <c r="E106" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="Q106" s="4">
-        <f xml:space="preserve"> Q105+25</f>
-        <v>325</v>
-      </c>
-      <c r="R106" s="11">
-        <f>E106+$D$93</f>
-        <v>0.04</v>
-      </c>
-      <c r="V106" s="4">
-        <f xml:space="preserve"> V105+25</f>
-        <v>325</v>
-      </c>
-      <c r="W106" s="11">
-        <f>E106+$D$94</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AA106" s="4">
-        <f xml:space="preserve"> AA105+25</f>
-        <v>325</v>
-      </c>
-      <c r="AB106" s="11">
-        <f>E106+$D$95</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D107" s="5">
-        <f t="shared" ref="D107:D112" si="56" xml:space="preserve"> D106+25</f>
-        <v>350</v>
-      </c>
-      <c r="E107" s="12">
-        <v>2.75E-2</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="Q107" s="5">
-        <f t="shared" ref="Q107:Q112" si="57" xml:space="preserve"> Q106+25</f>
-        <v>350</v>
-      </c>
-      <c r="R107" s="12">
-        <f>E107+$D$93</f>
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="V107" s="5">
-        <f t="shared" ref="V107:V112" si="58" xml:space="preserve"> V106+25</f>
-        <v>350</v>
-      </c>
-      <c r="W107" s="12">
-        <f>E107+$D$94</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="AA107" s="5">
-        <f t="shared" ref="AA107:AA112" si="59" xml:space="preserve"> AA106+25</f>
-        <v>350</v>
-      </c>
-      <c r="AB107" s="12">
-        <f>E107+$D$95</f>
-        <v>2.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D108" s="4">
-        <f t="shared" si="56"/>
-        <v>375</v>
-      </c>
-      <c r="E108" s="11">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="Q108" s="4">
-        <f t="shared" si="57"/>
-        <v>375</v>
-      </c>
-      <c r="R108" s="11">
-        <f>E108+$D$93</f>
-        <v>2.75E-2</v>
-      </c>
-      <c r="V108" s="4">
-        <f t="shared" si="58"/>
-        <v>375</v>
-      </c>
-      <c r="W108" s="11">
-        <f>E108+$D$94</f>
-        <v>1.7499999999999998E-2</v>
-      </c>
-      <c r="AA108" s="4">
-        <f t="shared" si="59"/>
-        <v>375</v>
-      </c>
-      <c r="AB108" s="11">
-        <f>E108+$D$95</f>
-        <v>1.95E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D109" s="5">
-        <f t="shared" si="56"/>
-        <v>400</v>
-      </c>
-      <c r="E109" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="Q109" s="5">
-        <f t="shared" si="57"/>
-        <v>400</v>
-      </c>
-      <c r="R109" s="12">
-        <f>E109+$D$93</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="V109" s="5">
-        <f t="shared" si="58"/>
-        <v>400</v>
-      </c>
-      <c r="W109" s="12">
-        <f>E109+$D$94</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AA109" s="5">
-        <f t="shared" si="59"/>
-        <v>400</v>
-      </c>
-      <c r="AB109" s="12">
-        <f>E109+$D$95</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D110" s="4">
-        <f t="shared" si="56"/>
-        <v>425</v>
-      </c>
-      <c r="E110" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="Q110" s="4">
-        <f t="shared" si="57"/>
-        <v>425</v>
-      </c>
-      <c r="R110" s="11">
-        <f>E110+$D$93</f>
-        <v>0.02</v>
-      </c>
-      <c r="V110" s="4">
-        <f t="shared" si="58"/>
-        <v>425</v>
-      </c>
-      <c r="W110" s="11">
-        <f>E110+$D$94</f>
-        <v>9.9999999999999985E-3</v>
-      </c>
-      <c r="AA110" s="4">
-        <f t="shared" si="59"/>
-        <v>425</v>
-      </c>
-      <c r="AB110" s="11">
-        <f>E110+$D$95</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="D111" s="5">
-        <f t="shared" si="56"/>
-        <v>450</v>
-      </c>
-      <c r="E111" s="12">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="Q111" s="5">
-        <f t="shared" si="57"/>
-        <v>450</v>
-      </c>
-      <c r="R111" s="12">
-        <f>E111+$D$93</f>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="V111" s="5">
-        <f t="shared" si="58"/>
-        <v>450</v>
-      </c>
-      <c r="W111" s="12">
-        <f>E111+$D$94</f>
-        <v>7.5000000000000006E-3</v>
-      </c>
-      <c r="AA111" s="5">
-        <f t="shared" si="59"/>
-        <v>450</v>
-      </c>
-      <c r="AB111" s="12">
-        <f>E111+$D$95</f>
-        <v>9.5000000000000015E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="3:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D112" s="47">
-        <f t="shared" si="56"/>
-        <v>475</v>
-      </c>
-      <c r="E112" s="32">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="Q112" s="47">
-        <f t="shared" si="57"/>
-        <v>475</v>
-      </c>
-      <c r="R112" s="32">
-        <f>E112+$D$93</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="V112" s="47">
-        <f t="shared" si="58"/>
-        <v>475</v>
-      </c>
-      <c r="W112" s="32">
-        <f>E112+$D$94</f>
-        <v>2.4999999999999996E-3</v>
-      </c>
-      <c r="AA112" s="47">
-        <f t="shared" si="59"/>
-        <v>475</v>
-      </c>
-      <c r="AB112" s="32">
-        <f>E112+$D$95</f>
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="9"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="9"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="9"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="46"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="46"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="46"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I123" s="48" t="s">
-        <v>12</v>
-      </c>
+      <c r="AA82" s="11">
+        <v>6.4400000000000013E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="19"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="19"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="19"/>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="19"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="19"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="19"/>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="19"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="19"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="19"/>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="P86" s="27"/>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P87" s="27"/>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P88" s="27"/>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P89" s="27"/>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P90" s="27"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="P91" s="27"/>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="28"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C93" s="7"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C94" s="7"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C95" s="7"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+      <c r="AC99" s="7"/>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="7"/>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+    </row>
+    <row r="103" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+    </row>
+    <row r="104" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C104" s="16"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="17"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="16"/>
+      <c r="AA104" s="17"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="7"/>
+    </row>
+    <row r="105" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C105" s="18"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="18"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="19"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="18"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="19"/>
+      <c r="AC105" s="7"/>
+    </row>
+    <row r="106" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="19"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="19"/>
+      <c r="AC106" s="7"/>
+    </row>
+    <row r="107" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="7"/>
+    </row>
+    <row r="108" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="7"/>
+      <c r="V108" s="7"/>
+      <c r="W108" s="19"/>
+      <c r="X108" s="7"/>
+      <c r="Y108" s="7"/>
+      <c r="Z108" s="7"/>
+      <c r="AA108" s="7"/>
+      <c r="AB108" s="19"/>
+      <c r="AC108" s="7"/>
+    </row>
+    <row r="109" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="19"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="19"/>
+      <c r="AC109" s="7"/>
+    </row>
+    <row r="110" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
+      <c r="U110" s="7"/>
+      <c r="V110" s="7"/>
+      <c r="W110" s="19"/>
+      <c r="X110" s="7"/>
+      <c r="Y110" s="7"/>
+      <c r="Z110" s="7"/>
+      <c r="AA110" s="7"/>
+      <c r="AB110" s="19"/>
+      <c r="AC110" s="7"/>
+    </row>
+    <row r="111" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="19"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="7"/>
+      <c r="AA111" s="7"/>
+      <c r="AB111" s="19"/>
+      <c r="AC111" s="7"/>
+    </row>
+    <row r="112" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+      <c r="V112" s="7"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="7"/>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="19"/>
+      <c r="AC112" s="7"/>
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+      <c r="AC113" s="7"/>
+    </row>
+    <row r="114" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B114" s="7"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7"/>
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B115" s="7"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7"/>
+      <c r="AB115" s="7"/>
+      <c r="AC115" s="7"/>
+    </row>
+    <row r="116" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
+      <c r="W116" s="7"/>
+      <c r="X116" s="7"/>
+      <c r="Y116" s="7"/>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
+      <c r="AC116" s="7"/>
+    </row>
+    <row r="117" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="7"/>
+      <c r="AA117" s="7"/>
+      <c r="AB117" s="7"/>
+      <c r="AC117" s="7"/>
+    </row>
+    <row r="118" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
+      <c r="U118" s="7"/>
+      <c r="V118" s="7"/>
+      <c r="W118" s="7"/>
+      <c r="X118" s="7"/>
+      <c r="Y118" s="7"/>
+      <c r="Z118" s="7"/>
+      <c r="AA118" s="7"/>
+      <c r="AB118" s="7"/>
+      <c r="AC118" s="7"/>
+    </row>
+    <row r="119" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="7"/>
+      <c r="AA119" s="7"/>
+      <c r="AB119" s="7"/>
+      <c r="AC119" s="7"/>
+    </row>
+    <row r="120" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+      <c r="U120" s="7"/>
+      <c r="V120" s="7"/>
+      <c r="W120" s="7"/>
+      <c r="X120" s="7"/>
+      <c r="Y120" s="7"/>
+      <c r="Z120" s="7"/>
+      <c r="AA120" s="7"/>
+      <c r="AB120" s="7"/>
+      <c r="AC120" s="7"/>
+    </row>
+    <row r="121" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="7"/>
+      <c r="AA121" s="7"/>
+      <c r="AB121" s="7"/>
+      <c r="AC121" s="7"/>
+    </row>
+    <row r="122" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7"/>
+      <c r="T122" s="7"/>
+      <c r="U122" s="7"/>
+      <c r="V122" s="7"/>
+      <c r="W122" s="7"/>
+      <c r="X122" s="7"/>
+      <c r="Y122" s="7"/>
+      <c r="Z122" s="7"/>
+      <c r="AA122" s="7"/>
+      <c r="AB122" s="7"/>
+      <c r="AC122" s="7"/>
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="7"/>
+      <c r="AA123" s="7"/>
+      <c r="AB123" s="7"/>
+      <c r="AC123" s="7"/>
+    </row>
+    <row r="124" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7"/>
+      <c r="T124" s="7"/>
+      <c r="U124" s="7"/>
+      <c r="V124" s="7"/>
+      <c r="W124" s="7"/>
+      <c r="X124" s="7"/>
+      <c r="Y124" s="7"/>
+      <c r="Z124" s="7"/>
+      <c r="AA124" s="7"/>
+      <c r="AB124" s="7"/>
+      <c r="AC124" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E69:F69"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
